--- a/biology/Botanique/Osyris/Osyris.xlsx
+++ b/biology/Botanique/Osyris/Osyris.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Osyris (les rouvets) est un genre de plantes de la famille des Santalacées.
 </t>
@@ -511,15 +523,17 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Plants of the World online (POWO)                (18 juin 2021)[1] (liste raffinée, version du 28 Avril 2021 et sans synonymes) 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Plants of the World online (POWO)                (18 juin 2021) (liste raffinée, version du 28 Avril 2021 et sans synonymes) 
 Osyris alba L.
 Osyris compressa (P.J.Bergius) A.DC.
 Osyris daruma  Parsa
 Osyris lanceolata Hochst. &amp; Steud.
 Osyris speciosa ( A.W.Hill) J.C.Manning &amp; Goldblatt
-Selon Tropicos                                           (8 juin 2013)[2] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (8 juin 2013) (Attention liste brute contenant possiblement des synonymes) :
 Osyris abyssinica Hochst. ex A. Rich.
 Osyris alba L., 1753
 Osyris angustifolia Baker
@@ -569,9 +583,11 @@
           <t>Espèces aux noms synonymes, obsolètes et leurs taxons de référence</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon The Plant List[3]   15 avril 2013
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon The Plant List   15 avril 2013
 Osyris abyssinica Hochst. ex A. Rich. = *Osyris lanceolata Hochst. &amp; Steud.
 Osyris abyssinica var. speciosa A.W. Hill = Osyris speciosa ( A.W.Hill) J.C.Manning &amp; Goldblatt
 Osyris angustifolia Baker = Thesium triflorum  L. f..
@@ -623,9 +639,11 @@
           <t>Espèces aux statut non résolu</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon The Plant List[3] 15 avril 2013
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon The Plant List 15 avril 2013
 Osyris compressa A.DC.
 Osyris daruma Parsa
 Osyris divaricata Pilg.
